--- a/src/test/resources/packages_qa.xlsx
+++ b/src/test/resources/packages_qa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\smart-test-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB30762-09D9-453B-8F18-E863F8CB19EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE64A7FD-77FE-4CF9-928C-F76014F85FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>PackageType</t>
   </si>
@@ -60,7 +60,25 @@
     <t/>
   </si>
   <si>
-    <t>AL-25-1010</t>
+    <t>AL-25-1014</t>
+  </si>
+  <si>
+    <t>AL-25-1015</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CO-25-9037</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NY-25-9031</t>
+  </si>
+  <si>
+    <t>NY-25-9032</t>
   </si>
 </sst>
 </file>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +524,98 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages_qa.xlsx
+++ b/src/test/resources/packages_qa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\smart-test-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE64A7FD-77FE-4CF9-928C-F76014F85FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B130F1-7EDF-4D04-9CFB-9A6D831DD735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>PackageType</t>
   </si>
@@ -63,9 +63,6 @@
     <t>AL-25-1014</t>
   </si>
   <si>
-    <t>AL-25-1015</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -75,10 +72,7 @@
     <t>NY</t>
   </si>
   <si>
-    <t>NY-25-9031</t>
-  </si>
-  <si>
-    <t>NY-25-9032</t>
+    <t>NY-25-9034</t>
   </si>
 </sst>
 </file>
@@ -461,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -538,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -552,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -561,58 +555,12 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
